--- a/data/output/FV2410_FV2404/UTILMD/44013.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10810" uniqueCount="721">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10831" uniqueCount="721">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2287,6 +2287,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U467" totalsRowShown="0">
+  <autoFilter ref="A1:U467"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2576,7 +2606,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25472,5 +25505,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44013.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44013.xlsx
@@ -4068,7 +4068,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6382,7 +6382,7 @@
         <v>677</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6602,7 +6602,7 @@
         <v>678</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6822,7 +6822,7 @@
         <v>679</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -7042,7 +7042,7 @@
         <v>680</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -7698,7 +7698,7 @@
         <v>682</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -7918,7 +7918,7 @@
         <v>683</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -8076,7 +8076,7 @@
         <v>684</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8688,7 +8688,7 @@
         <v>688</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -9178,7 +9178,7 @@
         <v>689</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9756,7 +9756,7 @@
         <v>691</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -10018,7 +10018,7 @@
         <v>693</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -10280,7 +10280,7 @@
         <v>695</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11422,7 +11422,7 @@
         <v>688</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12780,7 +12780,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13144,7 +13144,7 @@
         <v>698</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13556,7 +13556,7 @@
         <v>699</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -14004,7 +14004,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14544,7 +14544,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -14946,7 +14946,7 @@
         <v>703</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15668,7 +15668,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -16124,7 +16124,7 @@
         <v>705</v>
       </c>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -17058,7 +17058,7 @@
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -18698,7 +18698,7 @@
         <v>706</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="K289" s="2"/>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -19306,7 +19306,7 @@
         <v>706</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19454,7 +19454,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20122,7 +20122,7 @@
         <v>707</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20272,7 +20272,7 @@
         <v>708</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -20652,7 +20652,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -20870,7 +20870,7 @@
         <v>711</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -21282,7 +21282,7 @@
         <v>711</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21640,7 +21640,7 @@
         <v>712</v>
       </c>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21840,7 +21840,7 @@
         <v>713</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -22446,7 +22446,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22818,7 +22818,7 @@
         <v>706</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23268,7 +23268,7 @@
         <v>715</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -23412,7 +23412,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -23878,7 +23878,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -24300,7 +24300,7 @@
         <v>717</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -24612,7 +24612,7 @@
         <v>718</v>
       </c>
       <c r="L398" s="4"/>
-      <c r="M398" s="2" t="s">
+      <c r="M398" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N398" s="2" t="s">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="K408" s="2"/>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -25450,7 +25450,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25978,7 +25978,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -26506,7 +26506,7 @@
       </c>
       <c r="K434" s="2"/>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -27034,7 +27034,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -27452,7 +27452,7 @@
         <v>721</v>
       </c>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -27986,7 +27986,7 @@
       </c>
       <c r="K462" s="2"/>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="K465" s="2"/>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N465" s="2"/>
